--- a/LegislacaoTables/EficienciaEnergetica.xlsx
+++ b/LegislacaoTables/EficienciaEnergetica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eda4-my.sharepoint.com/personal/rodrigo_j_rocha_eda_pt/Documents/QUALIDADE - Documentação Read the Docs/SegmaDocs/LegislacaoTables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjrocha\Documents\Onedrive\OneDrive - Electricidade dos Açores SA\QUALIDADE - Documentação Read the Docs\SegmaDocs\LegislacaoTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFF1626-D8FC-45D3-9203-B459531903EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5EFF1626-D8FC-45D3-9203-B459531903EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E7C0996D-7BE5-46B3-B066-8911A9C58ED4}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="2985" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EficienciaEnergetica" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,12 +946,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1080,6 +1085,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010099C5B6EA8B3CDA4DAB7AFEDF411FB830" ma:contentTypeVersion="11" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="04002f0025b91f9f0325e6e28e545c17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7bc8b6e1-ca97-4dbe-8770-1d71de22ea5a" xmlns:ns4="3a75afdc-6369-4c07-a7fe-b524c00880c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3423cae3d16d2238d16e4e763daa6f34" ns3:_="" ns4:_="">
     <xsd:import namespace="7bc8b6e1-ca97-4dbe-8770-1d71de22ea5a"/>
@@ -1288,22 +1308,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC66A00-D628-4645-9D69-169159116F41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7bc8b6e1-ca97-4dbe-8770-1d71de22ea5a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3a75afdc-6369-4c07-a7fe-b524c00880c5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA29749-970A-4C30-B192-229AA2E7264D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D23A35CE-5C2C-427C-A407-B246B19E35DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1320,29 +1350,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA29749-970A-4C30-B192-229AA2E7264D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC66A00-D628-4645-9D69-169159116F41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3a75afdc-6369-4c07-a7fe-b524c00880c5"/>
-    <ds:schemaRef ds:uri="7bc8b6e1-ca97-4dbe-8770-1d71de22ea5a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>